--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.021921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.021921.xlsx_with_dialog_acts.xlsx
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2535,12 +2535,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3257,12 +3257,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3295,12 +3295,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3979,12 +3979,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4971,12 +4971,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5237,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5579,12 +5579,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5617,12 +5617,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6685,12 +6685,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6951,12 +6951,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7103,12 +7103,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7977,12 +7977,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8319,12 +8319,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8395,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8513,12 +8513,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9045,12 +9045,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9121,12 +9121,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9425,12 +9425,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9463,12 +9463,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9957,12 +9957,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10189,12 +10189,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10801,12 +10801,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10839,12 +10839,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10877,12 +10877,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11297,12 +11297,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
